--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blydw\qikanjianghu\projects\Blywd\data\excel\沙盒\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB064C7F-7B3F-4EB3-946B-B13F44033379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB36E2-0DFB-45D8-8BE7-DB0D72071372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="3" r:id="rId5"/>
+    <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Administrator</d:author>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">任务子项格式说明:
+          <t>任务子项格式说明:
 子项1类型#描述文字#数目#绑定目标#追踪位置
 子项2类型#描述文字#数目#绑定目标#追踪位置
 ...
@@ -53,7 +53,7 @@
 只有当子项未满足时才会进行地图标记显示
 子项参数的数目可以填0，当为0时默认子项已经完成
 当所有子项已经完成时，默认任务是完成状态</t>
-        </d:r>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="195">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -96,115 +96,65 @@
     <t>帮[$tagrole:name:{0}$]送信给[$tagplace:name:{1}$]</t>
   </si>
   <si>
-    <t>Help [$tagrole:name:{0}$] deliver a letter to [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]拜托你送一封信到[[imp:[$tagplace:name:{1}$]]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; begs you to deliver a letter to &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>0#送信到[$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t>0#Deliver a letter to [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
     <t>随机任务送信英雄</t>
   </si>
   <si>
     <t>帮[$tagrole:name:{0}$]送信给[$tagrole:name:{1}$]</t>
   </si>
   <si>
-    <t>Help [$tagrole:name:{0}$] deliver a letter to [$tagrole:name:{1}$]</t>
-  </si>
-  <si>
     <t>我想知道关于[$tagrole:name:{1}$]的事情?#随机任务送信英雄打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about [$tagrole:name:{1}$]. #随机任务送信英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]拜托你送一封信给[[imp:[$tagrole:name:{1}$]]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; begs you to deliver a letter to &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>0#送信给[$tagrole:name:{1}$]#1##@role={1}</t>
   </si>
   <si>
-    <t>0#Deliver a letter to [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
     <t>随机任务购买商品城市</t>
   </si>
   <si>
     <t>购买商品({0})</t>
   </si>
   <si>
-    <t>Purchase Quest ({0})</t>
-  </si>
-  <si>
     <t>[[imp:{0}]]缺少[%item_name:{1}%]，希望你能带[[imp:{2}]]单位回来。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; needs some [%item_name:{1}%] and hopes you can bring them &lt;color=red&gt;{2}&lt;/color&gt; samples.</t>
-  </si>
-  <si>
     <t>4#找到{2}件[%item_name:{1}%]回来#{2}#{1}#</t>
   </si>
   <si>
-    <t>4#Retrieve {2}[%item_name:{1}%] x#{2}#{1}#</t>
-  </si>
-  <si>
     <t>随机任务购买商品村庄</t>
   </si>
   <si>
     <t>为[$tagplace:name:{0}$]收集物品</t>
   </si>
   <si>
-    <t>Collection Quest ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[imp:[$tagplace:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，希望你能带[[imp:{2}]]单位回来。他们愿意为此支付[&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;]乌塔。
+    <t>[[imp:[$tagplace:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，希望你能带[[imp:{2}]]单位回来。他们愿意为此支付[&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;]乌塔。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; is in need of [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; and hopes you can fulfill their order. They are willing to pay [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar for your assistance.
-While there are a myraid of methods to acquire what they need, they suggest looking in the following areas: [$tagproduct:available_places:{1}$].</t>
-  </si>
-  <si>
     <t>4#找到[$tagproduct:item_name:{1}$]×{2}回来#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
   </si>
   <si>
-    <t>4#Retrieve [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
-  </si>
-  <si>
     <t>随机任务购买商品英雄</t>
   </si>
   <si>
     <t>为[$tagrole:name:{0}$]收集物品</t>
   </si>
   <si>
-    <t>Collection Quest ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
     <t>我想知道关于[$tagrole:name:{0}$]的事情?#随机任务购买商品英雄打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
+    <t>[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; needs some [$tagproduct:item_name:{1}$] and has a [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar budget if you can fetch &lt;color=red&gt;{2}&lt;/color&gt; samples.
-They suggest searching [$tagproduct:available_places:{1}$] for it. However, there may be other ways to get your hands on what you want.</t>
-  </si>
-  <si>
     <t>4#[$tagproduct:item_name:{1}$]×{2}#{2}#[$tagproduct:item_id:{1}$]#</t>
   </si>
   <si>
@@ -217,322 +167,182 @@
     <t>替[$tagrole:name:{0}$]找[$tagrole:name:{1}$]讨债</t>
   </si>
   <si>
-    <t>Collect a debt from [$tagrole:name:{0}$] (Sponsor: [$tagrole:name:{1}$])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我想知道关于[$tagrole:name:{1}$]的事情?#随机任务讨债打听事件1#3#1[=]1
+    <t>我想知道关于[$tagrole:name:{1}$]的事情?#随机任务讨债打听事件1#3#1[=]1
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t xml:space="preserve">I want to know something about [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
-I want to know something about [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
+    <t>[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
 作为奖励，你将得到其中的五分之一，也就是[&amp;{2}/5&amp;]乌塔。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; owes &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; has asked you to retrieve their hard-earned coin.
-You agreed to work off a 20% commission, and will receive [&amp;{2}/5&amp;] Utar as your reward.</t>
-  </si>
-  <si>
     <t>0#从[$tagrole:name:{1}$]手中要债#1##@role={1}</t>
   </si>
   <si>
-    <t>0#Collect a debt from [$tagrole:name:{1}$]#1##@role={1}</t>
-  </si>
-  <si>
     <t>随机任务英雄运输物资</t>
   </si>
   <si>
     <t>把[$tagrole:name:{0}$]的物资运输到[$tagplace:name:{1}$]</t>
   </si>
   <si>
-    <t>Transport supplies for [$tagrole:name:{0}$] to [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]希望你能帮忙运送[[imp:{3}]]单位[$tagproduct:item_name:{2}$]到[[imp:[$tagplace:name:{1}$]]]去。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; hopes you can help transport &lt;color=red&gt;{3}&lt;/color&gt; units of [$tagproduct:item_name:{2}$] to &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4#获得[$tagproduct:item_name:{2}$]×{3}#{3}#[$tagproduct:item_id:{2}$]#
+    <t>4#获得[$tagproduct:item_name:{2}$]×{3}#{3}#[$tagproduct:item_id:{2}$]#
 0#运输物资到[$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">4#Obtain [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
-0#Transport goods to [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
     <t>随机任务城市运输物资</t>
   </si>
   <si>
     <t>把[$tagplace:name:{0}$]的物资运输到[$tagplace:name:{1}$]</t>
   </si>
   <si>
-    <t>Transport [$tagplace:name:{0}$]'s supplies to [$tagplace:name:{1}$]</t>
-  </si>
-  <si>
     <t>[[imp:[$tagplace:name:{0}$]]]希望你能帮忙运送[[imp:{3}]]单位[$tagproduct:item_name:{2}$]到[[imp:[$tagplace:name:{1}$]]]去。</t>
   </si>
   <si>
-    <t>You agreed to help &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; transport [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; to &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>随机任务击败英雄</t>
   </si>
   <si>
     <t>击败[$tagrole:name:{1}$]</t>
   </si>
   <si>
-    <t>Defeat [$tagrole:name:{1}$]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我想知道关于[$tagrole:name:{1}$]的事情?#随机任务击败英雄打听事件1#3#1[=]1
+    <t>我想知道关于[$tagrole:name:{1}$]的事情?#随机任务击败英雄打听事件1#3#1[=]1
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务击败英雄打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t xml:space="preserve">I want to know something about [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
-I want to know something about [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]希望你能帮他击败[[imp:[$tagrole:name:{1}$]]]。击败[[imp:[$tagrole:name:{1}$]]]的军队并回去向[[imp:[$tagrole:name:{0}$]]]复命。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; hopes you can help him defeat &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Defeat &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;'s forces and report back to &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>2#击败[$tagrole:name:{1}$]#1#{1}#@role={1}</t>
   </si>
   <si>
-    <t>2#Defeat [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
-  </si>
-  <si>
     <t>随机任务挑战强盗</t>
   </si>
   <si>
     <t>击败[$tagplace:name:{0}$]的强盗</t>
   </si>
   <si>
-    <t>Defeat Bandits ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagplace:name:{0}$]]]附近有一伙袭击往来路人的强盗，去击败他们。</t>
   </si>
   <si>
-    <t>A group of bandits is attacking travelers near &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Go destroy them.</t>
-  </si>
-  <si>
     <t>0#击败强盗#1##@place={0}|PLACE:CITY:{0}</t>
   </si>
   <si>
-    <t>0#Defeat bandits#1##@place={0}|PLACE:CITY:{0}</t>
-  </si>
-  <si>
     <t>随机任务抓捕逃犯</t>
   </si>
   <si>
     <t>抓捕[$tagplace:name:{1}$]的逃犯</t>
   </si>
   <si>
-    <t>Capture [$tagplace:name:{1}$] fugitive</t>
-  </si>
-  <si>
     <t>我想知道关于[$tagrole:name:{0}$]的事情?#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]希望你可以前往[[imp:[$tagplace:name:{1}$]]]追捕一个逃犯。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; hopes you can capture a fugitive at &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>0#抓捕逃犯#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t>0#Capture the fugitive#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
     <t>随机任务赎回贵族</t>
   </si>
   <si>
     <t>解救被绑架到[$tagplace:name:{1}$]的[$tagplace:name:{0}$]贵族</t>
   </si>
   <si>
-    <t>Rescue [$tagplace:name:{1}$] nobles (Sponsor: [$tagplace:name:{0}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagplace:name:{0}$]]]希望你可以前往[[imp:[$tagplace:name:{1}$]]]附近赎回被强盗绑架的贵族。</t>
   </si>
   <si>
-    <t>Bandits near &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; have kidnapped a noble from &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Rescue them.</t>
-  </si>
-  <si>
     <t>0#寻找强盗并赎回贵族#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t>0#Find bandits and rescue nobles#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
     <t>随机任务找回村民</t>
   </si>
   <si>
     <t>找回[$tagplace:name:{0}$]的村民</t>
   </si>
   <si>
-    <t>Runaway Children ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagplace:name:{0}$]]]希望你可以在附近追回三拨出走的年轻人。</t>
   </si>
   <si>
-    <t>Three children have run away from &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Find them if you can.</t>
-  </si>
-  <si>
     <t>0#找回出走的村民们#3##@place={0}</t>
   </si>
   <si>
-    <t>0#Find the runaway children#3##@place={0}</t>
-  </si>
-  <si>
     <t>随机任务抓捕逃兵</t>
   </si>
   <si>
     <t>替[$tagrole:name:{0}$]搜捕([$tagplace:name:{1}$])附近的逃兵</t>
   </si>
   <si>
-    <t>Help [$tagplace:name:{1}$] search for deserters near ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
     <t>我想知道关于{0}的事情?#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]希望你可以前往[[imp:[$tagplace:name:{1}$]]]附近搜捕一队逃兵并击败他们。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; hopes you can find an entire squad of deserters near &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; and defeat them.</t>
-  </si>
-  <si>
     <t>0#搜捕逃兵#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t>0#Search for deserters#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
     <t>随机任务训练士兵</t>
   </si>
   <si>
     <t>帮助({0})训练一队({1})</t>
   </si>
   <si>
-    <t>Help ({0}) train a squad of ({1})</t>
-  </si>
-  <si>
     <t>我想知道关于{0}的事情?#随机任务训练士兵打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t>I want to know something about {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
-  </si>
-  <si>
     <t>[[imp:{0}]]希望你可以为他带来一队[[imp:{1}]]和一队[[imp:{2}]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; hopes you can bring them one squad of &lt;color=red&gt;{1}&lt;/color&gt; and one squad of &lt;color=red&gt;{2}&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10#招募一队{1}#1#{1}
+    <t>10#招募一队{1}#1#{1}
 10#招募一队{2}#1#{2}</t>
   </si>
   <si>
-    <t xml:space="preserve">10#Recruit a {1} squad#1#{1}
-10#Recruit a {2} squad #1#{2}</t>
-  </si>
-  <si>
     <t>随机任务交付同伴</t>
   </si>
   <si>
     <t>派出([$tagrole:name:{1}$])帮忙([$tagrole:name:{0}$])</t>
   </si>
   <si>
-    <t>Dispatch ([$tagrole:name:{1}$]) to help ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]从你的队伍里指派[[imp:[$tagrole:name:{1}$]]]去执行一项任务。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; dispatches &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; from your squad to run an errand.</t>
-  </si>
-  <si>
     <t>0#等待[$tagrole:name:{1}$]归队#1</t>
   </si>
   <si>
-    <t>0#Wait for [$tagrole:name:{1}$] to return#1</t>
-  </si>
-  <si>
     <t>随机任务训练村民</t>
   </si>
   <si>
     <t>帮助({0})将村民({2})训练成({3})</t>
   </si>
   <si>
-    <t>Help ({0}) train the villagers ({2}) to ({3})</t>
-  </si>
-  <si>
     <t>[[imp:{0}]]希望你可以把一队[[imp:{2}]]训练成[[imp:{3}]]，来保护他们免遭强盗骚扰。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;{0}&lt;/color&gt; hopes you can train up a squad of &lt;color=red&gt;{2}&lt;/color&gt; to &lt;color=red&gt;{3}&lt;/color&gt; to protect them from the harassment of bandits.</t>
-  </si>
-  <si>
     <t>10#训练一队{2}#1#{2}</t>
   </si>
   <si>
-    <t>10#Train a squad of {2}#1#{2}</t>
-  </si>
-  <si>
     <t>随机任务护送商队</t>
   </si>
   <si>
     <t>护送商队从[$tagplace:name:{0}$]前往[$tagplace:name:{1}$]</t>
   </si>
   <si>
-    <t>Escort a caravan to [$tagplace:name:{1}$] ([$tagplace:name:{0}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagplace:name:{0}$]]]要求你护送商队前往[[imp:[$tagplace:name:{1}$]]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; wants you to escort their caravan to &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>0#护送商队#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t>0#Escort a caravan#1##@place={1}|PLACE:CITY:{1}</t>
-  </si>
-  <si>
     <t>随机任务捐献乌塔</t>
   </si>
   <si>
     <t>捐献乌塔({0})</t>
   </si>
   <si>
-    <t>Donate Utar ({0})</t>
-  </si>
-  <si>
     <t>[[imp:{0}]]资金紧缺，希望你能捐献一些乌塔给他们。</t>
   </si>
   <si>
-    <t>Funds are running low for &lt;color=red&gt;{0}&lt;/color&gt;, who hopes you can help him donate a few Utar for the cause.</t>
-  </si>
-  <si>
     <t>4#乌塔#{1}#金钱#</t>
   </si>
   <si>
@@ -545,132 +355,318 @@
     <t>加入[$tagrole:campname:{1}$]部落</t>
   </si>
   <si>
-    <t>Join tribe ([$tagrole:campname:{1}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]写了一封介绍信给[[imp:[$tagrole:name:{1}$]]]，推荐你加入他们的部落。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; wrote a letter of recommendation to give to &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;, urging them to accept you into their tribe.</t>
-  </si>
-  <si>
     <t>0#找到[$tagrole:name:{1}$]并宣誓效忠#0##@role={1}</t>
   </si>
   <si>
-    <t>0#Find [$tagrole:name:{1}$] and pledge your allegiance#0##@role={1}</t>
-  </si>
-  <si>
     <t>随机任务攻陷地点</t>
   </si>
   <si>
     <t>攻占[$tagplace:name:{1}$]</t>
   </si>
   <si>
-    <t>Capture outpost ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]建议你去攻占[[imp:[$tagplace:name:{1}$]]]。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; suggests that you attack &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
-  </si>
-  <si>
     <t>0#攻占[$tagplace:name:{1}$]#1##@place={1}</t>
   </si>
   <si>
-    <t>0#Attack [$tagplace:name:{1}$]#1##@place={1}</t>
-  </si>
-  <si>
     <t>随机任务劝降敌将</t>
   </si>
   <si>
     <t>劝降敌将[$tagrole:name:{1}$]</t>
   </si>
   <si>
-    <t>Ask for surrender ([$tagrole:name:{1}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]与你计划将[[imp:[$tagrole:name:{1}$]]]劝降。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; is prepared to surrender &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; to you.</t>
-  </si>
-  <si>
     <t>0#劝降[$tagrole:name:{1}$]#1##@role={1}</t>
   </si>
   <si>
-    <t>0#Ask for [$tagrole:name:{1}$]'s surrender#1##@role={1}</t>
-  </si>
-  <si>
     <t>随机任务诬告城主</t>
   </si>
   <si>
     <t>指控[$tagrole:name:{1}$]城主</t>
   </si>
   <si>
-    <t>Accuse ruler ([$tagrole:name:{1}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]与你计划收集对[[imp:[$tagrole:name:{1}$]]]不利的人证并指控他。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; wants to gather dirt on &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; and charge them for their crimes.</t>
-  </si>
-  <si>
     <t>0#收集对[$tagrole:name:{1}$]不利的证据#3</t>
   </si>
   <si>
-    <t>0#Gather dirt on [$tagrole:name:{1}$]#3</t>
-  </si>
-  <si>
     <t>随机任务煽动叛乱</t>
   </si>
   <si>
     <t>与[$tagrole:name:{0}$]煽动叛乱</t>
   </si>
   <si>
-    <t>Incite a rebellion ([$tagrole:name:{0}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]与你密谋煽动对[[imp:[$tagrole:campname:{1}$]]]不满的城主参与一场叛乱，成立自己的部落。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; wants help inciting a rebellion against the ruler of &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; to form their own tribe.</t>
-  </si>
-  <si>
     <t>0#获取对[[imp:[$tagrole:campname:{1}$]]]不满的城主的支持#2</t>
   </si>
   <si>
-    <t>0#Gather support of those dissatisfied with the ruler of &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;#2</t>
-  </si>
-  <si>
     <t>随机任务搏击</t>
   </si>
   <si>
     <t>教训[$tagplace:name:{1}$]酒馆的无赖</t>
   </si>
   <si>
-    <t>Tavern Brawl ([$tagplace:name:{1}$])</t>
-  </si>
-  <si>
     <t>[[imp:[$tagrole:name:{0}$]]]希望你能去[[imp:[$tagplace:name:{1}$]]]的酒馆发起一次搏击，教训教训当地的恶霸无赖。</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; hopes you can travel to the tavern in &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; to brawl with the local ruffians.</t>
-  </si>
-  <si>
     <t>0#前往[[imp:[$tagplace:name:{1}$]]]的酒馆#1##@place={1}</t>
   </si>
   <si>
-    <t>0#Travel to the tavern in &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagplace:name:{1}$].</t>
+  </si>
+  <si>
+    <t>Ajude [$tagrole:name:{0}$] a entregar uma carta para [$tagrole:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Comprar Missão ({0})</t>
+  </si>
+  <si>
+    <t>Missão de Coleta ([$tagplace:name:{0}$]).</t>
+  </si>
+  <si>
+    <t>Missão de Coleta ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Colete uma dívida de [$tagrole:name:{0}$] (Patrocinador: [$tagrole:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Transporte os suprimentos de [$tagrole:name:{0}$] para [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Transporte de suprimentos de [$tagplace:name:{0}$] para [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Derrote [$tagrole:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Derrote os bandidos de ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Capturar os fugitivos de [$tagplace:name:{1}$]</t>
+  </si>
+  <si>
+    <t>Resgate os nobres de [$tagplace:name:{1}$] (Patrocínio: [$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Crianças fugitivas ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Ajude [$tagplace:name:{1}$] a procurar desertores perto de ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar um esquadrão de ({1})</t>
+  </si>
+  <si>
+    <t>Despache ([$tagrole:name:{1}$]) para ajudar ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Ajude ({0}) a treinar os aldeões ({2}) até ({3})</t>
+  </si>
+  <si>
+    <t>Escolte uma caravana até [$tagplace:name:{1}$] ([$tagplace:name:{0}$])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe ({0}) Utar </t>
+  </si>
+  <si>
+    <t>Junte-se à tribo ([$tagrole:campname:{1}$])</t>
+  </si>
+  <si>
+    <t>Capture o posto avançado ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Pedir a rendição do inimigo ([$tagrole:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Acusar o senhor da cidade ([$tagrole:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Instigar uma rebelião ([$tagrole:name:{0}$])</t>
+  </si>
+  <si>
+    <t>Dê uma lição aos vagabundos da taverna de ([$tagplace:name:{1}$])</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
+Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务抓捕逃犯打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre {0}.#随机任务抓捕逃兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre {0}.#随机任务训练士兵打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务送信英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>Eu gostaria de saber mais sobre [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
+Eu gostaria de saber mais sobre [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; implora para que você entregue uma carta para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; precisa de algumas amostras de [%item_name:{1}%] e espera que você possa trazer &lt;color=red&gt;{2}&lt;/color&gt; delas.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; e espera que você possa atender ao pedido deles. Eles estão dispostos a pagar [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar pela sua ajuda.
+Embora haja uma miríade de métodos para adquirir o que eles precisam, eles sugerem procurar nas seguintes áreas: [$tagproduct:available_places:{1}$]</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; precisa de [$tagproduct:item_name:{1}$] e tem um orçamento de [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar se você puder pegar &lt;color=red&gt;{2}&lt;/color&gt; amostras.
+Eles sugerem procurar em [$tagproduct:available_places:{1}$] por isso. No entanto, pode haver outras maneiras de conseguir o que você quer.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; deve {2} Utar a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; pediu que você recupere o dinheiro que eles ganharam com tanto esforço.
+Você concordou em trabalhar com uma comissão de 20%, e receberá [&amp;{2}/5&amp;] Utar como recompensa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a transportar &lt;color=red&gt;{3}&lt;/color&gt; unidades de [$tagproduct:item_name:{2}$] para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Você concordou em ajudar &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; a transportar [$tagproduct:item_name:{2}$] x&lt;color=red&gt;{3}&lt;/color&gt; para &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa ajudar a derrotar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;. Derrote as forças de &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e relate a &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Um grupo de bandidos está atacando viajantes perto de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Vá destruí-los.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa capturar um fugitivo em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Bandidos perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; sequestraram um nobre de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Resgate-os.</t>
+  </si>
+  <si>
+    <t>Três crianças fugiram de &lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt;. Encontre-as, se puder.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa encontrar um esquadrão inteiro de desertores perto de &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; e derrotá-los.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa trazer um esquadrão de &lt;color=red&gt;{1}&lt;/color&gt; e um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; da sua equipe designa &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;para uma missão.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;{0}&lt;/color&gt; espera que você possa treinar um esquadrão de &lt;color=red&gt;{2}&lt;/color&gt; para &lt;color=red&gt;{3}&lt;/color&gt; para protegê-los do assédio de bandidos.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; quer que você escolte a caravana deles até &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os fundos estão acabando para &lt;color=red&gt;{0}&lt;/color&gt;, que espera que você possa ajudar a doar alguns Utar para a causa.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; escreveu uma carta de recomendação para dar a &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt;,  pedindo-lhe que o aceitasse em sua tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; sugere que você ataque &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; está preparado para entregar &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; a você.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer reunir informações sobre &lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; e acusá-los por seus crimes.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; quer ajuda para incitar uma rebelião contra o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt; para formar sua própria tribo.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; espera que você possa viajar para a taverna em &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt; para brigar com os arruaceiros locais.</t>
+  </si>
+  <si>
+    <t>0#Entregar uma carta para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Entregar uma carta para [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Recuperar {2}[%item_name:{1}%] x#{2}#{1}#</t>
+  </si>
+  <si>
+    <t>4#Recuperar [$tagproduct:item_name:{1}$] x{2}#{2}#[$tagproduct:item_id:{1}$]#@place={0}</t>
+  </si>
+  <si>
+    <t>0#Cobre uma dívida de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>4#Obtenha [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
+0#Transporte as mercadorias para [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>2#Derrote [$tagrole:name:{1}$]#1#{1}#@role={1}</t>
+  </si>
+  <si>
+    <t>0#Derrote os bandidos em#1##@place={0}|PLACE:CITY:{0}</t>
+  </si>
+  <si>
+    <t>0#Capturar o fugitivo em#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre os bandidos e resgate o nobre#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre as crianças fugitivas#3##@place={0}</t>
+  </si>
+  <si>
+    <t>0#Procure desertores em #1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>10#Recrutar um esquadrão de {1}#1#{1}
+10#Recrutar um esquadrão de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Aguardando [$tagrole:name:{1}$] tretornar ao time#1</t>
+  </si>
+  <si>
+    <t>10#Treinar um esquadrão de {2}#1#{2}</t>
+  </si>
+  <si>
+    <t>0#Escoltar uma caravana#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Encontre [$tagrole:name:{1}$] e jure sua lealdade#0##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Ataque [$tagplace:name:{1}$]#1##@place={1}</t>
+  </si>
+  <si>
+    <t>0#Peça a rendição de [$tagrole:name:{1}$]#1##@role={1}</t>
+  </si>
+  <si>
+    <t>0#Colete provas contra [$tagrole:name:{1}$]#3</t>
+  </si>
+  <si>
+    <t>0#Reúna o apoio dos insatisfeitos com o governante de &lt;color=red&gt;[$tagrole:campname:{1}$]&lt;/color&gt;#2</t>
+  </si>
+  <si>
+    <t>0#Viaje para a taverna em&lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -703,6 +699,10 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -734,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04" tint="0"/>
+        <fgColor rgb="FFFFEA04"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,18 +762,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -788,64 +793,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="差" xfId="0" builtinId="27"/>
-    <cellStyle name="常规" xfId="1" builtinId="0"/>
-    <cellStyle name="普通" xfId="2"/>
-    <cellStyle name="普通 2" xfId="3"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="5"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="普通 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1187,904 +1180,916 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="174.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109.125" customWidth="1"/>
+    <col min="7" max="7" width="255.625" customWidth="1"/>
+    <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="152" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="93.75">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="243.75">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="I2" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="56.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="C3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="E3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="G3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="I3" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="C4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="I4" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="131.25">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="C5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="G5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="I5" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="93.75">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="E6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="7" spans="1:9" ht="75">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I7" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="206.25">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="C8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="G8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="I8" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="206.25">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="C9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="C10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="E10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="G10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="I10" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56.25">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="I11" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="56.25">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="C12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="E12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="G12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="I12" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
+      <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="C13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I13" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="56.25">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="C14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="G14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="I14" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="56.25">
+      <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="C15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="E15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="G15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="I15" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="56.25">
+      <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="C16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="E16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I16" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="56.25">
+      <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="C17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="G17" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="I17" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="56.25">
+      <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="C18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="G18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I18" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="56.25">
+      <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="G19" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="I19" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="56.25">
+      <c r="A20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="B20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="C20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G20" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I20" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="15" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="300">
+      <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="G21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="I21" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="225">
+      <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="C22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="G22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="I22" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="225">
+      <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="G23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="I23" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="281.25">
+      <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="C24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="G24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="I24" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="93.75">
+      <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="G25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="I25" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75">
+      <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="B26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="C26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="G26" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="H63" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
   </sheetData>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB36E2-0DFB-45D8-8BE7-DB0D72071372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B6103-5ACB-4CCA-A380-4B68F7D9B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,23 +1184,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="77.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="174.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="109.125" customWidth="1"/>
     <col min="7" max="7" width="255.625" customWidth="1"/>
     <col min="8" max="8" width="74.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="152" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="93.75">
+    <row r="1" spans="1:9" ht="56.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="243.75">
+    <row r="2" spans="1:9" ht="56.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="131.25">
+    <row r="5" spans="1:9" ht="75">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="93.75">
+    <row r="6" spans="1:9" ht="75">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="206.25">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="206.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" ht="56.25">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="300">
+    <row r="21" spans="1:9" ht="75">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="225">
+    <row r="22" spans="1:9" ht="56.25">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="225">
+    <row r="23" spans="1:9" ht="56.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="281.25">
+    <row r="24" spans="1:9" ht="56.25">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="93.75">
+    <row r="25" spans="1:9" ht="56.25">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75">
+    <row r="26" spans="1:9" ht="37.5">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>

--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/R任务列表_Quests_RandomQuests_hotfix.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blydw\qikanjianghu\projects\Blywd\data\excel\沙盒\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB064C7F-7B3F-4EB3-946B-B13F44033379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BF41B6-A7C5-4914-AD2B-6BE36F3317A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="3" r:id="rId5"/>
+    <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <d:author xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">Administrator</d:author>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+        <r>
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">任务子项格式说明:
+          <t>任务子项格式说明:
 子项1类型#描述文字#数目#绑定目标#追踪位置
 子项2类型#描述文字#数目#绑定目标#追踪位置
 ...
@@ -53,7 +53,7 @@
 只有当子项未满足时才会进行地图标记显示
 子项参数的数目可以填0，当为0时默认子项已经完成
 当所有子项已经完成时，默认任务是完成状态</t>
-        </d:r>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="372">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -168,11 +168,11 @@
     <t>Collection Quest ([$tagplace:name:{0}$])</t>
   </si>
   <si>
-    <t xml:space="preserve">[[imp:[$tagplace:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，希望你能带[[imp:{2}]]单位回来。他们愿意为此支付[&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;]乌塔。
+    <t>[[imp:[$tagplace:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，希望你能带[[imp:{2}]]单位回来。他们愿意为此支付[&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;]乌塔。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; is in need of [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; and hopes you can fulfill their order. They are willing to pay [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar for your assistance.
+    <t>&lt;color=red&gt;[$tagplace:name:{0}$]&lt;/color&gt; is in need of [$tagproduct:item_name:{1}$] x&lt;color=red&gt;{2}&lt;/color&gt; and hopes you can fulfill their order. They are willing to pay [&amp;[$tagproduct:item_price:{1}$]*{2}*1.3&amp;] Utar for your assistance.
 While there are a myraid of methods to acquire what they need, they suggest looking in the following areas: [$tagproduct:available_places:{1}$].</t>
   </si>
   <si>
@@ -197,11 +197,11 @@
     <t>I want to know something about [$tagrole:name:{0}$].#随机任务购买商品英雄打听事件1#3#1[=]1</t>
   </si>
   <si>
-    <t xml:space="preserve">[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
+    <t>[[imp:[$tagrole:name:{0}$]]]缺少[$tagproduct:item_name:{1}$]，愿意用[&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;]乌塔与你交换[[imp:{2}]]单位。
 可能会出现这些东西的地方有：[$tagproduct:available_places:{1}$]。除此之外，可能也有其他途径得到。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; needs some [$tagproduct:item_name:{1}$] and has a [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar budget if you can fetch &lt;color=red&gt;{2}&lt;/color&gt; samples.
+    <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; needs some [$tagproduct:item_name:{1}$] and has a [&amp;[$tagproduct:item_price:{1}$]*{2}*1.8&amp;] Utar budget if you can fetch &lt;color=red&gt;{2}&lt;/color&gt; samples.
 They suggest searching [$tagproduct:available_places:{1}$] for it. However, there may be other ways to get your hands on what you want.</t>
   </si>
   <si>
@@ -220,19 +220,19 @@
     <t>Collect a debt from [$tagrole:name:{0}$] (Sponsor: [$tagrole:name:{1}$])</t>
   </si>
   <si>
-    <t xml:space="preserve">我想知道关于[$tagrole:name:{1}$]的事情?#随机任务讨债打听事件1#3#1[=]1
+    <t>我想知道关于[$tagrole:name:{1}$]的事情?#随机任务讨债打听事件1#3#1[=]1
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t xml:space="preserve">I want to know something about [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
+    <t>I want to know something about [$tagrole:name:{1}$]. #随机任务讨债打听事件1#3#1[=]1
 I want to know something about [$tagrole:name:{0}$]. #随机任务讨债打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t xml:space="preserve">[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
+    <t>[[imp:[$tagrole:name:{1}$]]]欠了[[imp:[$tagrole:name:{0}$]]]{2}乌塔，[[imp:[$tagrole:name:{0}$]]]拜托你前去帮忙讨要回来。
 作为奖励，你将得到其中的五分之一，也就是[&amp;{2}/5&amp;]乌塔。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; owes &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; has asked you to retrieve their hard-earned coin.
+    <t>&lt;color=red&gt;[$tagrole:name:{1}$]&lt;/color&gt; owes &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; {2} Utar. &lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; has asked you to retrieve their hard-earned coin.
 You agreed to work off a 20% commission, and will receive [&amp;{2}/5&amp;] Utar as your reward.</t>
   </si>
   <si>
@@ -257,11 +257,11 @@
     <t>&lt;color=red&gt;[$tagrole:name:{0}$]&lt;/color&gt; hopes you can help transport &lt;color=red&gt;{3}&lt;/color&gt; units of [$tagproduct:item_name:{2}$] to &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">4#获得[$tagproduct:item_name:{2}$]×{3}#{3}#[$tagproduct:item_id:{2}$]#
+    <t>4#获得[$tagproduct:item_name:{2}$]×{3}#{3}#[$tagproduct:item_id:{2}$]#
 0#运输物资到[$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
-    <t xml:space="preserve">4#Obtain [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
+    <t>4#Obtain [$tagproduct:item_name:{2}$] x{3}#{3}#[$tagproduct:item_id:{2}$]#
 0#Transport goods to [$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
   <si>
@@ -289,11 +289,11 @@
     <t>Defeat [$tagrole:name:{1}$]</t>
   </si>
   <si>
-    <t xml:space="preserve">我想知道关于[$tagrole:name:{1}$]的事情?#随机任务击败英雄打听事件1#3#1[=]1
+    <t>我想知道关于[$tagrole:name:{1}$]的事情?#随机任务击败英雄打听事件1#3#1[=]1
 我想知道关于[$tagrole:name:{0}$]的事情?#随机任务击败英雄打听事件2#3#1[=]1</t>
   </si>
   <si>
-    <t xml:space="preserve">I want to know something about [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
+    <t>I want to know something about [$tagrole:name:{1}$].#随机任务击败英雄打听事件1#3#1[=]1
 I want to know something about [$tagrole:name:{0}$].#随机任务击败英雄打听事件2#3#1[=]1</t>
   </si>
   <si>
@@ -447,11 +447,11 @@
     <t>&lt;color=red&gt;{0}&lt;/color&gt; hopes you can bring them one squad of &lt;color=red&gt;{1}&lt;/color&gt; and one squad of &lt;color=red&gt;{2}&lt;/color&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">10#招募一队{1}#1#{1}
+    <t>10#招募一队{1}#1#{1}
 10#招募一队{2}#1#{2}</t>
   </si>
   <si>
-    <t xml:space="preserve">10#Recruit a {1} squad#1#{1}
+    <t>10#Recruit a {1} squad#1#{1}
 10#Recruit a {2} squad #1#{2}</t>
   </si>
   <si>
@@ -663,14 +663,541 @@
   </si>
   <si>
     <t>0#Travel to the tavern in &lt;color=red&gt;[$tagplace:name:{1}$]&lt;/color&gt;#1##@place={1}</t>
+  </si>
+  <si>
+    <t>测试通用任务</t>
+  </si>
+  <si>
+    <t>Help [$tagrole:name:{0}$] get their letter to [$tagrole:name:{1}$].</t>
+  </si>
+  <si>
+    <t>What can you tell me about [$tagrole:name:{1}$]?#Random Quest: Letter Delivery 1#3#1[=]1</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] entrusted you with a letter for [[imp:[$tagrole:name:{1}$]]].</t>
+  </si>
+  <si>
+    <t>0#Deliver the letter to [$tagrole:name:{1}$].#1##@role={1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎动</t>
+  </si>
+  <si>
+    <t>胎动</t>
+  </si>
+  <si>
+    <t>It's Moving!</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]最近感到胎动，她希望你也一起感受小宝贝的活力。</t>
+  </si>
+  <si>
+    <t>0#与[$tagrole:name:{0}$]交谈#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎动_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎动_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎动_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎教</t>
+  </si>
+  <si>
+    <t>胎教</t>
+  </si>
+  <si>
+    <t>Antenatal Sessions</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]来信说孩子的胎动越来越频繁了，据说胎教可以让孩子变得更聪明，她需要你的一些建议……</t>
+  </si>
+  <si>
+    <t>0#回去探望[$tagrole:name:{0}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎教_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎教_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_胎教_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_待产</t>
+  </si>
+  <si>
+    <t>待产</t>
+  </si>
+  <si>
+    <t>It's Almost Time</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]的肚子越来越大了，最近感到有些难受，如果你在她身边支持她，情况一定会好很多。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]'s belly grows ever larger. She's been feeling a little uncomfortable lately, and would certainly appreciate it if you were there to support her.</t>
+  </si>
+  <si>
+    <t>0#安慰你怀孕的爱人[$tagrole:name:{0}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Comfort your pregnant lover, [$tagrole:name:{0}$].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_待产_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_待产_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_待产_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆</t>
+  </si>
+  <si>
+    <t>临盆</t>
+  </si>
+  <si>
+    <t>In Labour</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]来信告诉你，你们的孩子快要出生啦。她迫切需要你的陪伴！</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] comes to you with news: your child's about to be born. She demands you be there with her!</t>
+  </si>
+  <si>
+    <t>0#陪在[$tagrole:name:{0}$]的身边支持她，见证宝宝的出生#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Accompany [$tagrole:name:{0}$], support her, and watch as your child arrives in the world.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_识人</t>
+  </si>
+  <si>
+    <t>识人</t>
+  </si>
+  <si>
+    <t>First Words</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]]来信说你的孩子[[imp:[$tagrole:name:{0}$]]]会叫妈妈了，如果你听孩子叫你爸爸，就快回家看看孩子吧。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]] writes that your child [[imp:[$tagrole:name:{0}$]]] can say 'Mama' already. If you want to hear them call for Papa, you should hurry back and see them.</t>
+  </si>
+  <si>
+    <t>0#回去看看[$tagrole:name:{2}$]和孩子#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Return to visit [$tagrole:name:{2}$] and your child.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_识人_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_识人_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_识人_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_学语</t>
+  </si>
+  <si>
+    <t>学语</t>
+  </si>
+  <si>
+    <t>Learning to Speak</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]]来信说孩子[[imp:[$tagrole:name:{0}$]]]正在学习说话，快来看看孩子吧。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]] writes to tell you that your child [[imp:[$tagrole:name:{0}$]]] is learning to speak. Come back soon and see them.</t>
+  </si>
+  <si>
+    <t>0#与你和[$tagrole:name:{2}$]的宝宝说说话#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Speak with you and [$tagrole:name:{2}$]'s child.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_学语_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_学语_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_学语_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_抓周</t>
+  </si>
+  <si>
+    <t>抓周</t>
+  </si>
+  <si>
+    <t>One Year Old</t>
+  </si>
+  <si>
+    <t>孩子[[imp:[$tagrole:name:{0}$]]]一周岁啦，[[imp:[$tagrole:name:{2}$]]]和你今天会为孩子举办周岁礼。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] is already a year old! [[imp:[$tagrole:name:{2}$]]] will be holding first-birthday celebrations for the child with you today.</t>
+  </si>
+  <si>
+    <t>0#和[$tagrole:name:{2}$]沟通周岁礼的事宜#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Discuss arrangements for first-birthday gifts with [$tagrole:name:{2}$].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_抓周_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_抓周_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_抓周_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_亲子游戏</t>
+  </si>
+  <si>
+    <t>亲子游戏</t>
+  </si>
+  <si>
+    <t>Family Fun</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]]来信说，[[imp:[$tagrole:name:{0}$]]]想爸爸了，快来陪他玩耍吧。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]] writes that your child [[imp:[$tagrole:name:{0}$]]] misses you. Hurry on back and play with them.</t>
+  </si>
+  <si>
+    <t>0#前往[$tagrole:name:{2}$]的住处与孩子[$tagrole:name:{0}$]玩耍#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Return to [$tagrole:name:{2}$] and play with your child [$tagrole:name:{0}$].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_亲子游戏_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_亲子游戏_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_亲子游戏_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_因材施教</t>
+  </si>
+  <si>
+    <t>因材施教</t>
+  </si>
+  <si>
+    <t>Specialized Studies</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]]来信说，你的孩子[[imp:[$tagrole:name:{0}$]]]总是问很多千奇百怪的问题，求知欲旺盛，是时候该教孩子一些事情了，她需要你的帮助。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]] writes that your child [[imp:[$tagrole:name:{0}$]]] is bursting with all kinds of questions, burning with a natural curiosity. It's time to teach them about the world, but she needs your help.</t>
+  </si>
+  <si>
+    <t>0#前往[$tagrole:name:{0}$]的住处满足其求知欲#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Head back to [$tagrole:name:{0}$] and sate your child's hunger for knowledge.#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_因材施教_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_因材施教_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_因材施教_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_童年礼物</t>
+  </si>
+  <si>
+    <t>童年礼物</t>
+  </si>
+  <si>
+    <t>A Gift</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]]来信说，孩子[[imp:[$tagrole:name:{0}$]]]很想念爸爸，但爸爸总是不知道去了哪里。她建议你给孩子买一件礼物作为惊喜，让孩子带在身边，时时刻刻感受到父亲的爱。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]] writes that your child [[imp:[$tagrole:name:{0}$]]] really misses you. They're sad that their Dad is always out somewhere, and she thinks it's time you gave them a gift: something to keep close by, so they can always feel their father's love.</t>
+  </si>
+  <si>
+    <t>0#给你与[$tagrole:name:{2}$]的孩子[$tagrole:name:{0}$]带一份礼物#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Bring a gift to you and [$tagrole:name:{2}$]'s child [$tagrole:name:{0}$].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_童年礼物_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_童年礼物_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_童年礼物_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_初阶历练</t>
+  </si>
+  <si>
+    <t>初阶历练</t>
+  </si>
+  <si>
+    <t>Early Trials</t>
+  </si>
+  <si>
+    <t>你的孩子[$tagrole:name:{0}$]想独自去历险，你不确定这是不是好主意。考虑到沙扎尔大陆危险重重，不应该放任他自作主张。也许应该带他去一个难度较低的地点开始历练。也许[[imp:[$tagplace:name:{1}$]]]是比较合适的地方。</t>
+  </si>
+  <si>
+    <t>Your child, [$tagrole:name:{0}$], wishes to adventure and fend for themselves. You're not so sure that's a good idea. Peril looms around every corner in Salzaar; it's no place for a child to run amok. Perhaps you could take them somewhere less challenging for some training. Maybe [[imp:[$tagplace:name:{1}$]]]?</t>
+  </si>
+  <si>
+    <t>0#带你的孩子前往[$tagplace:name:{1}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Take your child to [[imp:[$tagplace:name:{1}$]]].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_初阶历练_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_初阶历练_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_初阶历练_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_父子对决</t>
+  </si>
+  <si>
+    <t>虎父无犬子</t>
+  </si>
+  <si>
+    <t>Like Father, Like Son</t>
+  </si>
+  <si>
+    <t>你的孩子[$tagrole:name:{0}$]应该历练得差不多了，去接他回来吧。</t>
+  </si>
+  <si>
+    <t>Your child, [$tagrole:name:{0}$], has probably had their fill of adventure by now. Head back to pick them up.</t>
+  </si>
+  <si>
+    <t>0#去[$tagplace:name:{1}$]接孩子回来#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Go to pick up your child from [[imp:[$tagplace:name:{1}$]]].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_父子对决_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_父子对决_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_父子对决_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_高阶历练</t>
+  </si>
+  <si>
+    <t>高阶历练</t>
+  </si>
+  <si>
+    <t>Greater Challenges</t>
+  </si>
+  <si>
+    <t>你的孩子[$tagrole:name:{0}$]最近成长了不少，又在计划新的外出历练。考虑到沙扎尔大陆危险重重，不应该放任他自作主张。这一次你可以带他去[[imp:[$tagplace:name:{1}$]]]。</t>
+  </si>
+  <si>
+    <t>Your child, [$tagrole:name:{0}$], has grown a whole lot recently. They've more plans for adventure on their mind. Yet you're not as gung-ho, given the ever-present dangers around Salzaar. Maybe this time you could taken them to [[imp:[$tagplace:name:{1}$]]]?</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_高阶历练_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_高阶历练_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_高阶历练_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_年少轻狂</t>
+  </si>
+  <si>
+    <t>年少轻狂</t>
+  </si>
+  <si>
+    <t>Youthful Fervour</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]]来信告诉你，你的孩子[[imp:[$tagrole:name:{0}$]]]带人去讨伐一伙臭名昭著的强盗了，她担心孩子的安全。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{2}$]]] writes that your child [[imp:[$tagrole:name:{0}$]]] has gathered friends and ran off to pick a fight with a notorious pack of bandits. She's concerned for her child's safety.</t>
+  </si>
+  <si>
+    <t>0#前往强盗营地#1##大沙漠:5776,-1734:100</t>
+  </si>
+  <si>
+    <t>0#Head to the Bandit Camp.#1##大沙漠:5776,-1734:100</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_年少轻狂_2</t>
+  </si>
+  <si>
+    <t>0#前往强盗营地#1##沙盒黑崖花卉乡:-12173,-8249:100</t>
+  </si>
+  <si>
+    <t>0#Head to the Bandit Camp.#1##沙盒黑崖花卉乡:-12173,-8249:100</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_年少轻狂_3</t>
+  </si>
+  <si>
+    <t>0#前往强盗营地#1##大雪山:1707,3935:100</t>
+  </si>
+  <si>
+    <t>0#Head to the Bandit Camp.#1##大雪山:1707,3935:100</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_年少轻狂_4</t>
+  </si>
+  <si>
+    <t>0#前往强盗营地#1##沙盒风哭岩:-617,-2476:100</t>
+  </si>
+  <si>
+    <t>0#Head to the Bandit Camp.#1##沙盒风哭岩:-617,-2476:100</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_成人礼</t>
+  </si>
+  <si>
+    <t>成人礼</t>
+  </si>
+  <si>
+    <t>Coming of Age</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]快成年了，[[imp:[$tagrole:name:{2}$]]]来信，提醒你孩子的成人礼即将开始举办。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] is about to come of age. [[imp:[$tagrole:name:{2}$]]] writes to remind you that they'll be holding a ceremony soon.</t>
+  </si>
+  <si>
+    <t>0#前往[$tagrole:name:{0}$]的所在出席成人礼#1##@role={0}</t>
+  </si>
+  <si>
+    <t>0#Go to [$tagrole:name:{0}$] and take part in your child's coming of age ceremony.#1##@role={0}</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_成人礼_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_成人礼_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_成人礼_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_养胎</t>
+  </si>
+  <si>
+    <t>养胎</t>
+  </si>
+  <si>
+    <t>nourishing the fetus</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]]怀孕了，留在队伍里不安全，她希望你能带她到[[imp:某个城市]]安顿下来。</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] needs to temporarily leave the team to have a baby, and she hopes you can take her to a certain city to settle down。</t>
+  </si>
+  <si>
+    <t>0#带[$tagrole:name:{0}$]到某个城市养胎#1##</t>
+  </si>
+  <si>
+    <t>带[$tagrole:name:{0}$]到某个城市</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_养胎_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_养胎_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_养胎_4</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_主角</t>
+  </si>
+  <si>
+    <t>你的孩子快要出生啦，赶紧到[[imp:某个城市]]找人把孩子接生下来吧。</t>
+  </si>
+  <si>
+    <t>0#到某个城市生下孩子#1##</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_主角_2</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_主角_3</t>
+  </si>
+  <si>
+    <t>生子DLC通用任务_临盆_主角_4</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] tem sentido o bebê chutando e se mexendo ultimamente. Ela espera que você também sinta isso: a vitalidade de uma nova vida.</t>
+  </si>
+  <si>
+    <t>0#Fale com [$tagrole:name:{0}$]#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>[[imp:[$tagrole:name:{0}$]]] escreveu para dizer que os movimentos do bebê estão se tornando cada vez mais frequentes. Dizem que a educação pré-natal pode tornar as crianças mais inteligentes. Ela precisa de alguns conselhos seus...</t>
+  </si>
+  <si>
+    <t>0#Volte para visitar [$tagrole:name:{0}$].#1##@place={1}|PLACE:CITY:{1}</t>
+  </si>
+  <si>
+    <t>0#Volte para visitar [$tagrole:name:{0}$]#1##@place={1}|PLACE:CITY:{1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -692,19 +1219,23 @@
       <name val="宋体"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,7 +1265,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04" tint="0"/>
+        <fgColor rgb="FFFFEA04"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0B4B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEA04"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,18 +1304,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -788,64 +1335,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="差" xfId="0" builtinId="27"/>
-    <cellStyle name="常规" xfId="1" builtinId="0"/>
-    <cellStyle name="普通" xfId="2"/>
-    <cellStyle name="普通 2" xfId="3"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="5"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="普通 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1187,904 +1728,2398 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I63"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="42.75" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
+    <col min="9" max="9" width="152" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="112.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" ht="243.75">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="243.75">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" ht="225">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" ht="409.5">
+      <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" ht="409.5">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" ht="409.5">
+      <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" ht="409.5">
+      <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" ht="409.5">
+      <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" ht="409.5">
+      <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" ht="225">
+      <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:9" ht="281.25">
+      <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" ht="318.75">
+      <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:9" ht="225">
+      <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" ht="318.75">
+      <c r="A15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" ht="206.25">
+      <c r="A16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:9" ht="281.25">
+      <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:9" ht="262.5">
+      <c r="A18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:9" ht="262.5">
+      <c r="A19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="D19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:9" ht="168.75">
+      <c r="A20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="D20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:9" ht="300">
+      <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:9" ht="225">
+      <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:9" ht="225">
+      <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:9" ht="281.25">
+      <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:9" ht="356.25">
+      <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="D25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:9" ht="356.25">
+      <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="H63" s="12"/>
+    <row r="27" spans="1:9" ht="243.75">
+      <c r="A27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75">
+      <c r="A28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="75">
+      <c r="A29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="243.75">
+      <c r="A30" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="243.75">
+      <c r="A31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="356.25">
+      <c r="A32" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="356.25">
+      <c r="A33" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="356.25">
+      <c r="A34" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75">
+      <c r="A35" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75">
+      <c r="A36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="75">
+      <c r="A37" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75">
+      <c r="A38" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75">
+      <c r="A39" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="262.5">
+      <c r="A40" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75">
+      <c r="A41" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="262.5">
+      <c r="A42" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="262.5">
+      <c r="A43" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="393.75">
+      <c r="A44" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="393.75">
+      <c r="A45" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="393.75">
+      <c r="A46" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="393.75">
+      <c r="A47" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="300">
+      <c r="A48" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="300">
+      <c r="A49" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="300">
+      <c r="A50" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="300">
+      <c r="A51" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="318.75">
+      <c r="A52" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="318.75">
+      <c r="A53" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="318.75">
+      <c r="A54" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="318.75">
+      <c r="A55" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="300">
+      <c r="A56" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="300">
+      <c r="A57" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="300">
+      <c r="A58" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="300">
+      <c r="A59" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.5">
+      <c r="A60" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.5">
+      <c r="A61" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.5">
+      <c r="A62" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.5">
+      <c r="A63" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.5">
+      <c r="A64" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.5">
+      <c r="A65" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="409.5">
+      <c r="A66" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.5">
+      <c r="A67" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.5">
+      <c r="A68" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.5">
+      <c r="A69" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="409.5">
+      <c r="A70" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.5">
+      <c r="A71" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="206.25">
+      <c r="A72" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="206.25">
+      <c r="A73" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="206.25">
+      <c r="A74" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="206.25">
+      <c r="A75" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.5">
+      <c r="A76" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="409.5">
+      <c r="A77" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="409.5">
+      <c r="A78" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="409.5">
+      <c r="A79" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="393.75">
+      <c r="A80" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="393.75">
+      <c r="A81" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="393.75">
+      <c r="A82" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="393.75">
+      <c r="A83" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="337.5">
+      <c r="A84" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="337.5">
+      <c r="A85" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="337.5">
+      <c r="A86" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="337.5">
+      <c r="A87" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="300">
+      <c r="A88" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="300">
+      <c r="A89" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="300">
+      <c r="A90" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="300">
+      <c r="A91" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="206.25">
+      <c r="A92" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="1:9" ht="206.25">
+      <c r="A93" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:9" ht="206.25">
+      <c r="A94" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" ht="206.25">
+      <c r="A95" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I95" s="10"/>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>